--- a/data/georgia_census/imereti/chiatura/population_total.xlsx
+++ b/data/georgia_census/imereti/chiatura/population_total.xlsx
@@ -1367,13 +1367,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A73076F-D918-4DA3-A244-8AE2DFD1E9E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8B17D6-7F36-4056-944B-928CA775E5ED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB658A0B-6817-4C01-AD95-5CE7FEFC63A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{073D55FB-C9A7-40EC-9C38-AAB2B57D3CE1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8A38BDB-70EF-49F0-8AA9-6584C397C158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C7F46D-AA37-4F62-B9B4-D11A09486C90}"/>
 </file>